--- a/biology/Médecine/Œsophagite/Œsophagite.xlsx
+++ b/biology/Médecine/Œsophagite/Œsophagite.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C5%92sophagite</t>
+          <t>Œsophagite</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L’œsophagite est une inflammation de l’œsophage. Elle peut être aigüe ou chronique.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C5%92sophagite</t>
+          <t>Œsophagite</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Symptomatologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les symptômes incluent des brûlures rétrosternales typiques et généralement déclenchées par la position allongée (décubitus dorsal) ou penchée en avant. Elles s'accompagnent parfois d'une sensation de blocage dans la poitrine, de dysphagie (signe d'une complication), de signes d'anémie et d'une altération de l'état général, notamment chez l'enfant qui refuse l'alimentation.
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>%C5%92sophagite</t>
+          <t>Œsophagite</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,11 +556,48 @@
           <t>Diagnostic</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>La réalisation d'une fibroscopie œsophagienne est indispensable pour affirmer le diagnostic. Il existe une classification des œsophagites selon leur aspect macroscopique (conférence de consensus franco-belge, 1999).
-Grades de sévérité : classification de Savary et Miller
-Les spécialistes de l'endoscopie proposent de classer l'atteinte de l’œsophage selon quatre stades[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La réalisation d'une fibroscopie œsophagienne est indispensable pour affirmer le diagnostic. Il existe une classification des œsophagites selon leur aspect macroscopique (conférence de consensus franco-belge, 1999).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Œsophagite</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C5%92sophagite</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Diagnostic</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Grades de sévérité : classification de Savary et Miller</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Les spécialistes de l'endoscopie proposent de classer l'atteinte de l’œsophage selon quatre stades :
 stade 1 : érosions superficielles, isolées, non confluentes ;
 stade 2 : érosions confluentes, non circonférentielles ;
 stade 3 : érosions ou ulcérations confluentes, occupant la circonférence, mais sans sténose ;
@@ -554,31 +605,33 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>%C5%92sophagite</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/%C5%92sophagite</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Œsophagite</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C5%92sophagite</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
         <is>
           <t>Types et causes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Œsophagite peptique : reflux gastro-œsophagien.
 Œsophagite caustique : brûlure caustique (ingestion accidentelle ou non de caustiques), cause prépondérante dans l'apparition de sténoses de l’œsophage.
@@ -591,44 +644,13 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>%C5%92sophagite</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/%C5%92sophagite</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Épidémiologie</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Fréquence élevée, évolution « naturelle » du reflux gastro-œsophagien (RGO) et de la hernie hiatale.
-</t>
-        </is>
-      </c>
-    </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>%C5%92sophagite</t>
+          <t>Œsophagite</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -643,10 +665,45 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Épidémiologie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fréquence élevée, évolution « naturelle » du reflux gastro-œsophagien (RGO) et de la hernie hiatale.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Œsophagite</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C5%92sophagite</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Complications</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Endobrachyœsophage
 Adénocarcinome de l'œsophage
@@ -656,45 +713,167 @@
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>%C5%92sophagite</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/%C5%92sophagite</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Œsophagite</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C5%92sophagite</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>Traitement</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Traitement médical
-Traitement symptomatique
-Anti-sécrétoires : Ils réduisent la sécrétion d'acide gastrique(prescrits par le médecin à un état évolué du RGO)
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Traitement médical</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Traitement symptomatique</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Anti-sécrétoires : Ils réduisent la sécrétion d'acide gastrique(prescrits par le médecin à un état évolué du RGO)
 Alginates type pansement gastrique après chaque repas et à la demande (maximum six par jour).
-Anti-acides d'action locale : hydroxydes d'aluminium ou de magnésium (maximum six par jour).
-Traitement étiologique
-Inhibiteur de la pompe à protons
-Traitement chirurgical
-Œsophagite caustique
-En cas d’œsophagite caustique, un bilan endoscopique et radiographique/scanographique de la sphère ORL, de la partie haute du tube digestif (œsophage, estomac, duodénum) et éventuellement de la trachée et des bronches, est réalisé dans les premières heures après l'ingestion de produit caustique. Le but des examens est d'évaluer la gravité des lésions provoquées par l'ingestion, afin d'adapter le traitement chirurgical d'urgence. Selon la gravité des lésions, le traitement peut aller d'une simple pose de sonde de nutrition artificielle (jéjunostomie, le plus souvent) à une exérèse des organes atteints d'une brûlure à potentiel infectieux important (œsophage, estomac, intestins, rate, etc). Ce traitement intervient généralement en cas de perforation du tube digestif, conduisant de façon quasi-inévitable à la médiastinite et/ou péritonite.
+Anti-acides d'action locale : hydroxydes d'aluminium ou de magnésium (maximum six par jour).</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Œsophagite</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C5%92sophagite</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Traitement</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Traitement médical</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Traitement étiologique</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Inhibiteur de la pompe à protons</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Œsophagite</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C5%92sophagite</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Traitement</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Traitement chirurgical</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Œsophagite caustique</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En cas d’œsophagite caustique, un bilan endoscopique et radiographique/scanographique de la sphère ORL, de la partie haute du tube digestif (œsophage, estomac, duodénum) et éventuellement de la trachée et des bronches, est réalisé dans les premières heures après l'ingestion de produit caustique. Le but des examens est d'évaluer la gravité des lésions provoquées par l'ingestion, afin d'adapter le traitement chirurgical d'urgence. Selon la gravité des lésions, le traitement peut aller d'une simple pose de sonde de nutrition artificielle (jéjunostomie, le plus souvent) à une exérèse des organes atteints d'une brûlure à potentiel infectieux important (œsophage, estomac, intestins, rate, etc). Ce traitement intervient généralement en cas de perforation du tube digestif, conduisant de façon quasi-inévitable à la médiastinite et/ou péritonite.
 Selon le traitement chirurgical d'urgence réalisé après l'ingestion, il peut être possible ou non d'opérer une reconstruction totale ou partielle du tube digestif quelques mois plus tard, une fois les tissus cicatrisés.
-Autres
-S'il y a sténose sévère on fait l'opération de NISSEN (Confection d'une valve antireflux)</t>
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Œsophagite</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C5%92sophagite</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Traitement</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Traitement chirurgical</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Autres</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>S'il y a sténose sévère on fait l'opération de NISSEN (Confection d'une valve antireflux)</t>
         </is>
       </c>
     </row>
